--- a/BatteryBoard/bom/bom_pcb.xlsx
+++ b/BatteryBoard/bom/bom_pcb.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="20060" tabRatio="500"/>
+    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="19480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="bom_pcb" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="129">
   <si>
     <t>Item</t>
   </si>
@@ -402,6 +402,15 @@
   </si>
   <si>
     <t>399-14163-ND</t>
+  </si>
+  <si>
+    <t>RMCF1206ZT0R00CT-ND</t>
+  </si>
+  <si>
+    <t>Stackpole Electronics</t>
+  </si>
+  <si>
+    <t>RMCF1206ZT0R00</t>
   </si>
 </sst>
 </file>
@@ -488,6 +497,23 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -506,23 +532,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -534,7 +543,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L38" totalsRowCount="1" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L38" totalsRowCount="1" headerRowDxfId="1">
   <autoFilter ref="A1:L37">
     <filterColumn colId="8">
       <filters>
@@ -831,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1284,6 +1293,15 @@
       <c r="D13">
         <v>1</v>
       </c>
+      <c r="E13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
+        <v>128</v>
+      </c>
       <c r="H13">
         <v>1206</v>
       </c>
@@ -1293,9 +1311,12 @@
       <c r="J13">
         <v>3</v>
       </c>
+      <c r="K13">
+        <v>0.1</v>
+      </c>
       <c r="L13" s="3">
         <f>Table1[[#This Row],[Cost]]*Table1[[#This Row],[Qty to buy]]</f>
-        <v>0</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1928,15 +1949,15 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L38" s="4">
         <f>SUM(Table1[Total Cost])</f>
-        <v>97.67</v>
+        <v>97.970000000000013</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I37">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Buy">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Buy">
       <formula>NOT(ISERROR(SEARCH("Buy",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Choose">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Choose">
       <formula>NOT(ISERROR(SEARCH("Choose",I2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/BatteryBoard/bom/bom_pcb.xlsx
+++ b/BatteryBoard/bom/bom_pcb.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="19480" tabRatio="500"/>
+    <workbookView xWindow="21600" yWindow="460" windowWidth="16800" windowHeight="19480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="bom_pcb" sheetId="1" r:id="rId1"/>
@@ -544,13 +544,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L38" totalsRowCount="1" headerRowDxfId="1">
-  <autoFilter ref="A1:L37">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="Buy"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L37"/>
   <sortState ref="A2:L37">
     <sortCondition ref="I1:I37"/>
   </sortState>
@@ -1529,7 +1523,7 @@
         <v>22.12</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1553,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1577,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -1598,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>7</v>
       </c>
@@ -1628,7 +1622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>9</v>
       </c>
@@ -1658,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>17</v>
       </c>
@@ -1688,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>19</v>
       </c>
@@ -1718,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>21</v>
       </c>
@@ -1742,7 +1736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>22</v>
       </c>
@@ -1766,7 +1760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>25</v>
       </c>
@@ -1787,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>26</v>
       </c>
@@ -1808,7 +1802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>27</v>
       </c>
@@ -1829,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
@@ -1850,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1871,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1892,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>16</v>
       </c>
@@ -1910,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>20</v>
       </c>
@@ -1928,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>28</v>
       </c>

--- a/BatteryBoard/bom/bom_pcb.xlsx
+++ b/BatteryBoard/bom/bom_pcb.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21600" yWindow="460" windowWidth="16800" windowHeight="19480" tabRatio="500"/>
+    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="19480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="bom_pcb" sheetId="1" r:id="rId1"/>
@@ -544,7 +544,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L38" totalsRowCount="1" headerRowDxfId="1">
-  <autoFilter ref="A1:L37"/>
+  <autoFilter ref="A1:L37">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="Buy"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:L37">
     <sortCondition ref="I1:I37"/>
   </sortState>
@@ -1523,7 +1529,7 @@
         <v>22.12</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1547,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1571,7 +1577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -1592,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>7</v>
       </c>
@@ -1622,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>9</v>
       </c>
@@ -1652,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>17</v>
       </c>
@@ -1682,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>19</v>
       </c>
@@ -1712,7 +1718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>21</v>
       </c>
@@ -1736,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>22</v>
       </c>
@@ -1760,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>25</v>
       </c>
@@ -1781,7 +1787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>26</v>
       </c>
@@ -1802,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>27</v>
       </c>
@@ -1823,7 +1829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
@@ -1844,7 +1850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1865,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1886,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>16</v>
       </c>
@@ -1904,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>20</v>
       </c>
@@ -1922,7 +1928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>28</v>
       </c>
